--- a/surf-paper/demos/conv_filters_and_integral_images.xlsx
+++ b/surf-paper/demos/conv_filters_and_integral_images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Conv" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Original Image</t>
   </si>
@@ -26,39 +26,24 @@
     <t>Edge Detection</t>
   </si>
   <si>
-    <t>Mean Filter</t>
-  </si>
-  <si>
-    <t>Horizontal Filter</t>
-  </si>
-  <si>
-    <t>Vertical Filter</t>
-  </si>
-  <si>
-    <t>Mean Filter 2</t>
-  </si>
-  <si>
-    <t>Gaussian Filter</t>
-  </si>
-  <si>
-    <t>Haar Wavelet X</t>
-  </si>
-  <si>
     <t>Haar Wavelet</t>
   </si>
   <si>
     <t>Integral Image</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sample Area:  </t>
-    </r>
+    <t>X Response</t>
+  </si>
+  <si>
+    <t>Y Response</t>
+  </si>
+  <si>
+    <t>Mean Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Area:  </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -67,7 +52,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A</t>
+      <t xml:space="preserve">A </t>
     </r>
     <r>
       <rPr>
@@ -77,7 +62,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -87,7 +72,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>B</t>
+      <t xml:space="preserve">B </t>
     </r>
     <r>
       <rPr>
@@ -97,7 +82,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -107,7 +92,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>C</t>
+      <t xml:space="preserve">C </t>
     </r>
     <r>
       <rPr>
@@ -117,7 +102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
@@ -129,16 +114,8 @@
       </rPr>
       <t>D</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -147,7 +124,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1735</t>
+      <t xml:space="preserve">1735 </t>
     </r>
     <r>
       <rPr>
@@ -157,7 +134,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -167,7 +144,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>300</t>
+      <t xml:space="preserve">300 </t>
     </r>
     <r>
       <rPr>
@@ -177,7 +154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">- </t>
     </r>
     <r>
       <rPr>
@@ -187,7 +164,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>770</t>
+      <t xml:space="preserve">770 </t>
     </r>
     <r>
       <rPr>
@@ -197,7 +174,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
+      <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
@@ -209,23 +186,25 @@
       </rPr>
       <t>50</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
+  </si>
+  <si>
+    <t>Mean Kernel 2</t>
+  </si>
+  <si>
+    <t>Gaussian Kernel</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,12 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -842,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,6 +955,150 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,27 +1120,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,164 +1150,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2048,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,171 +2056,171 @@
     <col min="30" max="33" width="4.7109375" style="1" customWidth="1"/>
     <col min="34" max="34" width="4" style="1" customWidth="1"/>
     <col min="35" max="35" width="2.42578125" style="1" customWidth="1"/>
-    <col min="36" max="38" width="5.28515625" style="1" customWidth="1"/>
+    <col min="36" max="38" width="3.85546875" style="1" customWidth="1"/>
     <col min="39" max="39" width="3.140625" style="1" customWidth="1"/>
     <col min="40" max="48" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.140625" style="1" customWidth="1"/>
-    <col min="50" max="52" width="5.42578125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="2.7109375" style="1" customWidth="1"/>
+    <col min="50" max="52" width="3.85546875" style="1" customWidth="1"/>
     <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="L1" s="67" t="s">
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="L1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="69"/>
-      <c r="Z1" s="67" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
+      <c r="Z1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="69"/>
-      <c r="AN1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="52"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="82"/>
+      <c r="AN1" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="99"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="100"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="71"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="71"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="71"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="55"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="85"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="85"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="102"/>
     </row>
     <row r="3" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="85"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="58"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="79"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="104"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -2271,10 +2259,10 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="78"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="70"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8">
         <f>SUM($AJ$8*B4+$AK$8*C4+$AL$8*D4)</f>
@@ -2305,10 +2293,10 @@
         <v>255</v>
       </c>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="78"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="70"/>
       <c r="AN4" s="32"/>
       <c r="AO4" s="33">
         <f>SUM($AX$8*B4+$AY$8*C4+$AZ$8*D4)</f>
@@ -2339,10 +2327,10 @@
         <v>255</v>
       </c>
       <c r="AV4" s="34"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="61"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="106"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -2402,10 +2390,10 @@
         <v>85</v>
       </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="78"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="13">
         <f t="shared" ref="AA5:AA12" si="3">SUM($AJ$8*B5+$AK$8*C5+$AL$8*D5)</f>
@@ -2436,10 +2424,10 @@
         <v>-510</v>
       </c>
       <c r="AH5" s="14"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="78"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="70"/>
       <c r="AN5" s="35"/>
       <c r="AO5" s="13">
         <f t="shared" ref="AO5:AO12" si="10">SUM($AX$8*B5+$AY$8*C5+$AZ$8*D5)</f>
@@ -2470,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="61"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="106"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
@@ -2533,10 +2521,10 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="78"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13">
         <f t="shared" si="3"/>
@@ -2567,10 +2555,10 @@
         <v>255</v>
       </c>
       <c r="AH6" s="14"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="78"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="70"/>
       <c r="AN6" s="35"/>
       <c r="AO6" s="13">
         <f t="shared" si="10"/>
@@ -2601,10 +2589,10 @@
         <v>-255</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="61"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="106"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
@@ -2664,7 +2652,7 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2704,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="78"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="70"/>
       <c r="AN7" s="35"/>
       <c r="AO7" s="13">
         <f t="shared" si="10"/>
@@ -2738,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="AV7" s="36"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="61"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="106"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
@@ -2801,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2841,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="14"/>
-      <c r="AI8" s="79"/>
+      <c r="AI8" s="74"/>
       <c r="AJ8" s="16">
         <v>1</v>
       </c>
@@ -2881,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="36"/>
-      <c r="AW8" s="59"/>
+      <c r="AW8" s="105"/>
       <c r="AX8" s="28">
         <v>-1</v>
       </c>
@@ -2950,7 +2938,7 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T9" s="14"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2990,12 +2978,12 @@
         <v>0</v>
       </c>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88"/>
       <c r="AN9" s="35"/>
       <c r="AO9" s="13">
         <f t="shared" si="10"/>
@@ -3026,12 +3014,12 @@
         <v>0</v>
       </c>
       <c r="AV9" s="36"/>
-      <c r="AW9" s="59"/>
-      <c r="AX9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="49"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="96"/>
+      <c r="AZ9" s="97"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
@@ -3091,12 +3079,12 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T10" s="14"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="87"/>
+      <c r="X10" s="88"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="13">
         <f t="shared" si="3"/>
@@ -3127,10 +3115,10 @@
         <v>255</v>
       </c>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="78"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="70"/>
       <c r="AN10" s="35"/>
       <c r="AO10" s="13">
         <f t="shared" si="10"/>
@@ -3161,10 +3149,10 @@
         <v>-255</v>
       </c>
       <c r="AV10" s="36"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="61"/>
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="106"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
@@ -3224,10 +3212,10 @@
         <v>85</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="78"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="13">
         <f t="shared" si="3"/>
@@ -3258,10 +3246,10 @@
         <v>-510</v>
       </c>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="78"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="70"/>
       <c r="AN11" s="35"/>
       <c r="AO11" s="13">
         <f t="shared" si="10"/>
@@ -3292,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="36"/>
-      <c r="AW11" s="59"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
-      <c r="AZ11" s="61"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="106"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
@@ -3334,10 +3322,10 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="78"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="23">
         <f t="shared" si="3"/>
@@ -3368,10 +3356,10 @@
         <v>255</v>
       </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="78"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="70"/>
       <c r="AN12" s="37"/>
       <c r="AO12" s="38">
         <f t="shared" si="10"/>
@@ -3402,10 +3390,10 @@
         <v>255</v>
       </c>
       <c r="AV12" s="39"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="61"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="106"/>
     </row>
     <row r="13" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -3416,32 +3404,32 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="76"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="76"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="91"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="91"/>
       <c r="AN13" s="45"/>
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
@@ -3468,10 +3456,10 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="78"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -3481,10 +3469,10 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="78"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="70"/>
       <c r="AN14" s="32"/>
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
@@ -3494,10 +3482,10 @@
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
       <c r="AV14" s="34"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="61"/>
+      <c r="AW14" s="105"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="106"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -3532,10 +3520,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="78"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="70"/>
       <c r="Z15" s="26">
         <f>SUM($AK$17*B4+$AK$18*B5+$AK$19*B6)</f>
         <v>255</v>
@@ -3572,10 +3560,10 @@
         <f t="shared" si="18"/>
         <v>255</v>
       </c>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="78"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="70"/>
       <c r="AN15" s="43">
         <f>SUM($AY$16*B4+$AY$17*B5+$AY$18*B6)</f>
         <v>-255</v>
@@ -3612,10 +3600,10 @@
         <f t="shared" si="19"/>
         <v>-255</v>
       </c>
-      <c r="AW15" s="59"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="61"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="106"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -3650,10 +3638,10 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="78"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
       <c r="Z16" s="26">
         <f t="shared" ref="Z16:Z21" si="26">SUM($AK$17*B5+$AK$18*B6+$AK$19*B7)</f>
         <v>0</v>
@@ -3690,10 +3678,10 @@
         <f t="shared" ref="AH16:AH21" si="34">SUM($AK$17*J5+$AK$18*J6+$AK$19*J7)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="78"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="70"/>
       <c r="AN16" s="43">
         <f t="shared" ref="AN16:AN21" si="35">SUM($AY$16*B5+$AY$17*B6+$AY$18*B7)</f>
         <v>0</v>
@@ -3730,12 +3718,12 @@
         <f t="shared" ref="AV16:AV21" si="43">SUM($AY$16*J5+$AY$17*J6+$AY$18*J7)</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="61"/>
+      <c r="AW16" s="105"/>
+      <c r="AX16" s="106"/>
       <c r="AY16" s="31">
         <v>-1</v>
       </c>
-      <c r="AZ16" s="65"/>
+      <c r="AZ16" s="110"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
@@ -3770,7 +3758,7 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="79"/>
+      <c r="U17" s="74"/>
       <c r="V17" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3816,12 +3804,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="89"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="75"/>
       <c r="AK17" s="16">
         <v>1</v>
       </c>
-      <c r="AL17" s="81"/>
+      <c r="AL17" s="93"/>
       <c r="AN17" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3858,12 +3846,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="61"/>
+      <c r="AW17" s="105"/>
+      <c r="AX17" s="106"/>
       <c r="AY17" s="31">
         <v>0</v>
       </c>
-      <c r="AZ17" s="65"/>
+      <c r="AZ17" s="110"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
@@ -3901,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="79"/>
+      <c r="U18" s="74"/>
       <c r="V18" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3947,12 +3935,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="89"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="75"/>
       <c r="AK18" s="16">
         <v>-2</v>
       </c>
-      <c r="AL18" s="81"/>
+      <c r="AL18" s="93"/>
       <c r="AN18" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3989,12 +3977,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="59"/>
-      <c r="AX18" s="64"/>
+      <c r="AW18" s="105"/>
+      <c r="AX18" s="109"/>
       <c r="AY18" s="40">
         <v>1</v>
       </c>
-      <c r="AZ18" s="66"/>
+      <c r="AZ18" s="111"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -4032,7 +4020,7 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="79"/>
+      <c r="U19" s="74"/>
       <c r="V19" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -4078,12 +4066,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="90"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="76"/>
       <c r="AK19" s="28">
         <v>1</v>
       </c>
-      <c r="AL19" s="82"/>
+      <c r="AL19" s="94"/>
       <c r="AN19" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4120,12 +4108,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="59"/>
-      <c r="AX19" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="49"/>
+      <c r="AW19" s="105"/>
+      <c r="AX19" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY19" s="96"/>
+      <c r="AZ19" s="97"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -4160,12 +4148,12 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" s="73"/>
-      <c r="X20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="W20" s="87"/>
+      <c r="X20" s="88"/>
       <c r="Z20" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -4202,12 +4190,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
       <c r="AN20" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4244,10 +4232,10 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="61"/>
+      <c r="AW20" s="105"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="106"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -4282,10 +4270,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="78"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
         <v>255</v>
@@ -4322,10 +4310,10 @@
         <f t="shared" si="34"/>
         <v>255</v>
       </c>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="78"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="69"/>
+      <c r="AL21" s="70"/>
       <c r="AN21" s="43">
         <f t="shared" si="35"/>
         <v>255</v>
@@ -4362,10 +4350,10 @@
         <f t="shared" si="43"/>
         <v>255</v>
       </c>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="61"/>
+      <c r="AW21" s="105"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="106"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
@@ -4379,10 +4367,10 @@
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="22"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="78"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
@@ -4392,10 +4380,10 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="73"/>
       <c r="AN22" s="37"/>
       <c r="AO22" s="42"/>
       <c r="AP22" s="42"/>
@@ -4405,25 +4393,25 @@
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
       <c r="AV22" s="39"/>
-      <c r="AW22" s="62"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="64"/>
+      <c r="AW22" s="107"/>
+      <c r="AX22" s="108"/>
+      <c r="AY22" s="108"/>
+      <c r="AZ22" s="109"/>
     </row>
     <row r="23" spans="1:52" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="75"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="76"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="91"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="L24" s="5"/>
@@ -4435,10 +4423,10 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="78"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E25" s="24"/>
@@ -4472,10 +4460,10 @@
         <v>1020</v>
       </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="78"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E26" s="25"/>
@@ -4509,10 +4497,10 @@
         <v>510</v>
       </c>
       <c r="T26" s="14"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="78"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E27" s="25"/>
@@ -4546,7 +4534,7 @@
         <v>255</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="79"/>
+      <c r="U27" s="74"/>
       <c r="V27" s="16">
         <v>1</v>
       </c>
@@ -4589,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="14"/>
-      <c r="U28" s="79"/>
+      <c r="U28" s="74"/>
       <c r="V28" s="16">
         <v>1</v>
       </c>
@@ -4635,7 +4623,7 @@
         <v>255</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="79"/>
+      <c r="U29" s="74"/>
       <c r="V29" s="16">
         <v>1</v>
       </c>
@@ -4681,12 +4669,12 @@
         <v>510</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="W30" s="73"/>
-      <c r="X30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="87"/>
+      <c r="X30" s="88"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
@@ -4720,10 +4708,10 @@
         <v>1020</v>
       </c>
       <c r="T31" s="14"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="78"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="70"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
@@ -4736,10 +4724,10 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="88"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="73"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="24"/>
@@ -4747,21 +4735,18 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="U24:X26"/>
-    <mergeCell ref="U31:X32"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="AI4:AL7"/>
-    <mergeCell ref="AI10:AL12"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AI14:AL16"/>
-    <mergeCell ref="AI21:AL22"/>
-    <mergeCell ref="AI17:AI20"/>
-    <mergeCell ref="AJ17:AJ19"/>
-    <mergeCell ref="L3:X3"/>
-    <mergeCell ref="Z3:AL3"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="U11:X12"/>
-    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AN1:AZ2"/>
+    <mergeCell ref="AN3:AZ3"/>
+    <mergeCell ref="AW14:AZ15"/>
+    <mergeCell ref="AW20:AZ22"/>
+    <mergeCell ref="AW16:AW19"/>
+    <mergeCell ref="AX16:AX18"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="AW4:AZ7"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AW10:AZ12"/>
     <mergeCell ref="L1:X2"/>
     <mergeCell ref="Z1:AL2"/>
     <mergeCell ref="B1:J2"/>
@@ -4778,18 +4763,21 @@
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="U21:X22"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AN1:AZ2"/>
-    <mergeCell ref="AN3:AZ3"/>
-    <mergeCell ref="AW14:AZ15"/>
-    <mergeCell ref="AW20:AZ22"/>
-    <mergeCell ref="AW16:AW19"/>
-    <mergeCell ref="AX16:AX18"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="AW4:AZ7"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AW10:AZ12"/>
+    <mergeCell ref="L3:X3"/>
+    <mergeCell ref="Z3:AL3"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="U11:X12"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="U24:X26"/>
+    <mergeCell ref="U31:X32"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="AI4:AL7"/>
+    <mergeCell ref="AI10:AL12"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AI14:AL16"/>
+    <mergeCell ref="AI21:AL22"/>
+    <mergeCell ref="AI17:AI20"/>
+    <mergeCell ref="AJ17:AJ19"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J12">
     <cfRule type="cellIs" dxfId="33" priority="83" operator="lessThan">
@@ -5194,7 +5182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV14 AN14">
+  <conditionalFormatting sqref="AN14 AV14">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5227,258 +5215,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M9"/>
+  <dimension ref="B1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="92" customWidth="1"/>
-    <col min="2" max="6" width="4" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="92" customWidth="1"/>
-    <col min="8" max="9" width="4" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="5" style="92" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" style="92" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="4.42578125" style="48" customWidth="1"/>
+    <col min="2" max="6" width="4" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="48" customWidth="1"/>
+    <col min="8" max="9" width="4" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="H1" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="115"/>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="114"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="116"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="117"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
       <c r="L2" s="117"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91">
-        <v>0</v>
-      </c>
-      <c r="C3" s="91">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="47">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
         <v>50</v>
       </c>
-      <c r="D3" s="95">
+      <c r="D3" s="51">
         <v>200</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="51">
         <v>50</v>
       </c>
-      <c r="F3" s="91">
-        <v>0</v>
-      </c>
-      <c r="H3" s="91">
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="121"/>
+      <c r="H3" s="47">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="105">
+      <c r="I3" s="61">
         <f>SUM(H3,C3)</f>
         <v>50</v>
       </c>
-      <c r="J3" s="95">
+      <c r="J3" s="51">
         <f>SUM(I3,D3)</f>
         <v>250</v>
       </c>
-      <c r="K3" s="102">
+      <c r="K3" s="58">
         <f t="shared" ref="K3:L3" si="0">SUM(J3,E3)</f>
         <v>300</v>
       </c>
-      <c r="L3" s="91">
+      <c r="L3" s="47">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
+      <c r="M3" s="123"/>
+      <c r="N3" s="117"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="91">
+    <row r="4" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47">
         <v>50</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="49">
         <v>200</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="62">
         <v>20</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="63">
         <v>200</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="50">
         <v>50</v>
       </c>
-      <c r="H4" s="91">
+      <c r="G4" s="121"/>
+      <c r="H4" s="47">
         <f>SUM(H3,B4)</f>
         <v>50</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="49">
         <f>SUM(B3:C4)</f>
         <v>300</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="53">
         <f>SUM(B3:D4)</f>
         <v>520</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="54">
         <f>SUM(B3:E4)</f>
         <v>770</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="50">
         <f>SUM(B3:F4)</f>
         <v>820</v>
       </c>
+      <c r="M4" s="123"/>
+      <c r="N4" s="47" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="91">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="47">
         <v>200</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="49">
         <v>20</v>
       </c>
-      <c r="D5" s="108">
-        <v>255</v>
-      </c>
-      <c r="E5" s="109">
+      <c r="D5" s="64">
+        <v>255</v>
+      </c>
+      <c r="E5" s="65">
         <v>20</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="50">
         <v>200</v>
       </c>
-      <c r="H5" s="91">
+      <c r="G5" s="121"/>
+      <c r="H5" s="47">
         <f t="shared" ref="H5:H7" si="1">SUM(H4,B5)</f>
         <v>250</v>
       </c>
-      <c r="I5" s="93">
+      <c r="I5" s="49">
         <f>SUM(B3:C5)</f>
         <v>520</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="55">
         <f>SUM(B3:D5)</f>
         <v>995</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="56">
         <f>SUM(B3:E5)</f>
         <v>1265</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="50">
         <f>SUM(B3:F5)</f>
         <v>1515</v>
       </c>
+      <c r="M5" s="123"/>
+      <c r="N5" s="118" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="91">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="47">
         <v>50</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="49">
         <v>200</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="66">
         <v>20</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="67">
         <v>200</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="50">
         <v>50</v>
       </c>
-      <c r="H6" s="91">
+      <c r="G6" s="121"/>
+      <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="59">
         <f>SUM(B3:C6)</f>
         <v>770</v>
       </c>
-      <c r="J6" s="101">
+      <c r="J6" s="57">
         <f>SUM(B3:D6)</f>
         <v>1265</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="60">
         <f>SUM(B3:E6)</f>
         <v>1735</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="50">
         <f>SUM(B3:F6)</f>
         <v>2035</v>
       </c>
+      <c r="M6" s="123"/>
+      <c r="N6" s="119" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="91">
-        <v>0</v>
-      </c>
-      <c r="C7" s="91">
+    <row r="7" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47">
+        <v>0</v>
+      </c>
+      <c r="C7" s="47">
         <v>50</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="52">
         <v>200</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="52">
         <v>50</v>
       </c>
-      <c r="F7" s="91">
-        <v>0</v>
-      </c>
-      <c r="H7" s="91">
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="122"/>
+      <c r="H7" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I7" s="91">
+      <c r="I7" s="47">
         <f>SUM(B3:C7)</f>
         <v>820</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="52">
         <f>SUM(B3:D7)</f>
         <v>1515</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="52">
         <f>SUM(B3:E7)</f>
         <v>2035</v>
       </c>
-      <c r="L7" s="91">
+      <c r="L7" s="47">
         <f>SUM(B3:F7)</f>
         <v>2335</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="94">
+      <c r="M7" s="115"/>
+      <c r="N7" s="47">
         <f>K6-K3-I6+I3</f>
         <v>715</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="N1:N3"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="H1:L2"/>
-    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="G1:G7"/>
+    <mergeCell ref="M1:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:F7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">

--- a/surf-paper/demos/conv_filters_and_integral_images.xlsx
+++ b/surf-paper/demos/conv_filters_and_integral_images.xlsx
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Y Response</t>
-  </si>
-  <si>
-    <t>Mean Kernel</t>
   </si>
   <si>
     <t xml:space="preserve">Sample Area:  </t>
@@ -188,16 +185,22 @@
     </r>
   </si>
   <si>
-    <t>Mean Kernel 2</t>
-  </si>
-  <si>
-    <t>Gaussian Kernel</t>
-  </si>
-  <si>
     <t>Horizontal</t>
   </si>
   <si>
     <t>Vertical</t>
+  </si>
+  <si>
+    <t>Mean Kernel 
+(box filter)</t>
+  </si>
+  <si>
+    <t>Mean Kernel 2
+(unequal weights)</t>
+  </si>
+  <si>
+    <t>Gaussian Kernel
+(approximation)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,15 +1021,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,158 +1153,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2037,7 +2067,7 @@
   <dimension ref="A1:AZ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,162 +2095,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="L1" s="80" t="s">
+      <c r="B1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="L1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
-      <c r="Z1" s="80" t="s">
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="92"/>
+      <c r="Z1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="82"/>
-      <c r="AN1" s="98" t="s">
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="92"/>
+      <c r="AN1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="99"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="100"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="75"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="85"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="102"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="94"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="94"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="94"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="77"/>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="78"/>
     </row>
     <row r="3" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="79"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="104"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="108"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="80"/>
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="81"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -2259,10 +2289,10 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="70"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="101"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8">
         <f>SUM($AJ$8*B4+$AK$8*C4+$AL$8*D4)</f>
@@ -2293,10 +2323,10 @@
         <v>255</v>
       </c>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="70"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="101"/>
       <c r="AN4" s="32"/>
       <c r="AO4" s="33">
         <f>SUM($AX$8*B4+$AY$8*C4+$AZ$8*D4)</f>
@@ -2327,10 +2357,10 @@
         <v>255</v>
       </c>
       <c r="AV4" s="34"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="106"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="84"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -2390,10 +2420,10 @@
         <v>85</v>
       </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="101"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="13">
         <f t="shared" ref="AA5:AA12" si="3">SUM($AJ$8*B5+$AK$8*C5+$AL$8*D5)</f>
@@ -2424,10 +2454,10 @@
         <v>-510</v>
       </c>
       <c r="AH5" s="14"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="70"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="101"/>
       <c r="AN5" s="35"/>
       <c r="AO5" s="13">
         <f t="shared" ref="AO5:AO12" si="10">SUM($AX$8*B5+$AY$8*C5+$AZ$8*D5)</f>
@@ -2458,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="106"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="84"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
@@ -2521,10 +2551,10 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="70"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="101"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13">
         <f t="shared" si="3"/>
@@ -2555,10 +2585,10 @@
         <v>255</v>
       </c>
       <c r="AH6" s="14"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="70"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="101"/>
       <c r="AN6" s="35"/>
       <c r="AO6" s="13">
         <f t="shared" si="10"/>
@@ -2589,10 +2619,10 @@
         <v>-255</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="106"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="84"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
@@ -2652,7 +2682,7 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="100"/>
       <c r="V7" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2692,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="70"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="101"/>
       <c r="AN7" s="35"/>
       <c r="AO7" s="13">
         <f t="shared" si="10"/>
@@ -2726,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AV7" s="36"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="106"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="84"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
@@ -2789,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="100"/>
       <c r="V8" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2829,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="14"/>
-      <c r="AI8" s="74"/>
+      <c r="AI8" s="102"/>
       <c r="AJ8" s="16">
         <v>1</v>
       </c>
@@ -2869,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="36"/>
-      <c r="AW8" s="105"/>
+      <c r="AW8" s="82"/>
       <c r="AX8" s="28">
         <v>-1</v>
       </c>
@@ -2938,14 +2968,14 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T9" s="14"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="15">
+      <c r="U9" s="100"/>
+      <c r="V9" s="125">
         <v>0.1111111111111111</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="125">
         <v>0.1111111111111111</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="125">
         <v>0.1111111111111111</v>
       </c>
       <c r="Z9" s="12"/>
@@ -2978,12 +3008,12 @@
         <v>0</v>
       </c>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="88"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="97"/>
       <c r="AN9" s="35"/>
       <c r="AO9" s="13">
         <f t="shared" si="10"/>
@@ -3014,12 +3044,12 @@
         <v>0</v>
       </c>
       <c r="AV9" s="36"/>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="95" t="s">
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="97"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="72"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
@@ -3079,12 +3109,12 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T10" s="14"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="W10" s="87"/>
-      <c r="X10" s="88"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="127"/>
+      <c r="X10" s="128"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="13">
         <f t="shared" si="3"/>
@@ -3115,10 +3145,10 @@
         <v>255</v>
       </c>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="70"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="101"/>
       <c r="AN10" s="35"/>
       <c r="AO10" s="13">
         <f t="shared" si="10"/>
@@ -3149,10 +3179,10 @@
         <v>-255</v>
       </c>
       <c r="AV10" s="36"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="106"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="83"/>
+      <c r="AZ10" s="84"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
@@ -3212,10 +3242,10 @@
         <v>85</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="70"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="87"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="13">
         <f t="shared" si="3"/>
@@ -3246,10 +3276,10 @@
         <v>-510</v>
       </c>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="70"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="101"/>
       <c r="AN11" s="35"/>
       <c r="AO11" s="13">
         <f t="shared" si="10"/>
@@ -3280,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="36"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="106"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="84"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
@@ -3322,10 +3352,10 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="101"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="23">
         <f t="shared" si="3"/>
@@ -3356,10 +3386,10 @@
         <v>255</v>
       </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="70"/>
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="101"/>
       <c r="AN12" s="37"/>
       <c r="AO12" s="38">
         <f t="shared" si="10"/>
@@ -3390,10 +3420,10 @@
         <v>255</v>
       </c>
       <c r="AV12" s="39"/>
-      <c r="AW12" s="105"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="106"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="84"/>
     </row>
     <row r="13" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -3404,32 +3434,32 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="91"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="91"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="99"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="80"/>
+      <c r="AL13" s="99"/>
       <c r="AN13" s="45"/>
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
@@ -3456,10 +3486,10 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="70"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="101"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -3469,10 +3499,10 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="70"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="101"/>
       <c r="AN14" s="32"/>
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
@@ -3482,10 +3512,10 @@
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
       <c r="AV14" s="34"/>
-      <c r="AW14" s="105"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="106"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="84"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -3520,10 +3550,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="70"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="101"/>
       <c r="Z15" s="26">
         <f>SUM($AK$17*B4+$AK$18*B5+$AK$19*B6)</f>
         <v>255</v>
@@ -3560,10 +3590,10 @@
         <f t="shared" si="18"/>
         <v>255</v>
       </c>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="70"/>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="101"/>
       <c r="AN15" s="43">
         <f>SUM($AY$16*B4+$AY$17*B5+$AY$18*B6)</f>
         <v>-255</v>
@@ -3600,10 +3630,10 @@
         <f t="shared" si="19"/>
         <v>-255</v>
       </c>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="106"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" s="83"/>
+      <c r="AZ15" s="84"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -3638,10 +3668,10 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="101"/>
       <c r="Z16" s="26">
         <f t="shared" ref="Z16:Z21" si="26">SUM($AK$17*B5+$AK$18*B6+$AK$19*B7)</f>
         <v>0</v>
@@ -3678,10 +3708,10 @@
         <f t="shared" ref="AH16:AH21" si="34">SUM($AK$17*J5+$AK$18*J6+$AK$19*J7)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="70"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="101"/>
       <c r="AN16" s="43">
         <f t="shared" ref="AN16:AN21" si="35">SUM($AY$16*B5+$AY$17*B6+$AY$18*B7)</f>
         <v>0</v>
@@ -3718,12 +3748,12 @@
         <f t="shared" ref="AV16:AV21" si="43">SUM($AY$16*J5+$AY$17*J6+$AY$18*J7)</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="105"/>
-      <c r="AX16" s="106"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="84"/>
       <c r="AY16" s="31">
         <v>-1</v>
       </c>
-      <c r="AZ16" s="110"/>
+      <c r="AZ16" s="88"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
@@ -3758,7 +3788,7 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
+      <c r="U17" s="100"/>
       <c r="V17" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3804,12 +3834,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="75"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="112"/>
       <c r="AK17" s="16">
         <v>1</v>
       </c>
-      <c r="AL17" s="93"/>
+      <c r="AL17" s="104"/>
       <c r="AN17" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3846,12 +3876,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="105"/>
-      <c r="AX17" s="106"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="84"/>
       <c r="AY17" s="31">
         <v>0</v>
       </c>
-      <c r="AZ17" s="110"/>
+      <c r="AZ17" s="88"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
@@ -3889,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="74"/>
+      <c r="U18" s="100"/>
       <c r="V18" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3935,12 +3965,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="75"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="112"/>
       <c r="AK18" s="16">
         <v>-2</v>
       </c>
-      <c r="AL18" s="93"/>
+      <c r="AL18" s="104"/>
       <c r="AN18" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3977,12 +4007,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="105"/>
-      <c r="AX18" s="109"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="87"/>
       <c r="AY18" s="40">
         <v>1</v>
       </c>
-      <c r="AZ18" s="111"/>
+      <c r="AZ18" s="89"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -4020,14 +4050,14 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="15">
+      <c r="U19" s="100"/>
+      <c r="V19" s="125">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="125">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="X19" s="15">
+      <c r="X19" s="125">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="Z19" s="26">
@@ -4066,12 +4096,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="76"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="113"/>
       <c r="AK19" s="28">
         <v>1</v>
       </c>
-      <c r="AL19" s="94"/>
+      <c r="AL19" s="105"/>
       <c r="AN19" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4108,12 +4138,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="105"/>
-      <c r="AX19" s="95" t="s">
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="97"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="72"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -4148,12 +4178,12 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="W20" s="87"/>
-      <c r="X20" s="88"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="127"/>
+      <c r="X20" s="128"/>
       <c r="Z20" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -4190,12 +4220,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="92"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
       <c r="AN20" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4232,10 +4262,10 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="105"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="106"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="83"/>
+      <c r="AY20" s="83"/>
+      <c r="AZ20" s="84"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -4270,10 +4300,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="70"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="87"/>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
         <v>255</v>
@@ -4310,10 +4340,10 @@
         <f t="shared" si="34"/>
         <v>255</v>
       </c>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="70"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="101"/>
       <c r="AN21" s="43">
         <f t="shared" si="35"/>
         <v>255</v>
@@ -4350,10 +4380,10 @@
         <f t="shared" si="43"/>
         <v>255</v>
       </c>
-      <c r="AW21" s="105"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="106"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="83"/>
+      <c r="AY21" s="83"/>
+      <c r="AZ21" s="84"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
@@ -4367,10 +4397,10 @@
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="22"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="70"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="101"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
@@ -4380,10 +4410,10 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="73"/>
+      <c r="AI22" s="109"/>
+      <c r="AJ22" s="110"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="111"/>
       <c r="AN22" s="37"/>
       <c r="AO22" s="42"/>
       <c r="AP22" s="42"/>
@@ -4393,25 +4423,25 @@
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
       <c r="AV22" s="39"/>
-      <c r="AW22" s="107"/>
-      <c r="AX22" s="108"/>
-      <c r="AY22" s="108"/>
-      <c r="AZ22" s="109"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="86"/>
+      <c r="AY22" s="86"/>
+      <c r="AZ22" s="87"/>
     </row>
     <row r="23" spans="1:52" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="91"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="99"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="L24" s="5"/>
@@ -4423,10 +4453,10 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="70"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="101"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E25" s="24"/>
@@ -4460,10 +4490,10 @@
         <v>1020</v>
       </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="70"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="101"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E26" s="25"/>
@@ -4497,10 +4527,10 @@
         <v>510</v>
       </c>
       <c r="T26" s="14"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="70"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E27" s="25"/>
@@ -4534,7 +4564,7 @@
         <v>255</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="74"/>
+      <c r="U27" s="100"/>
       <c r="V27" s="16">
         <v>1</v>
       </c>
@@ -4577,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="14"/>
-      <c r="U28" s="74"/>
+      <c r="U28" s="100"/>
       <c r="V28" s="16">
         <v>1</v>
       </c>
@@ -4623,18 +4653,18 @@
         <v>255</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="16">
+      <c r="U29" s="100"/>
+      <c r="V29" s="28">
         <v>1</v>
       </c>
-      <c r="W29" s="16">
+      <c r="W29" s="28">
         <v>1</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4669,12 +4699,12 @@
         <v>510</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="W30" s="87"/>
-      <c r="X30" s="88"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" s="129"/>
+      <c r="X30" s="130"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
@@ -4708,10 +4738,10 @@
         <v>1020</v>
       </c>
       <c r="T31" s="14"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="70"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="133"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
@@ -4724,10 +4754,10 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="73"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="111"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="24"/>
@@ -4735,6 +4765,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="V30:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U27:U31"/>
+    <mergeCell ref="U24:X26"/>
+    <mergeCell ref="AI4:AL7"/>
+    <mergeCell ref="AI10:AL12"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AI14:AL16"/>
+    <mergeCell ref="AI21:AL22"/>
+    <mergeCell ref="AI17:AI20"/>
+    <mergeCell ref="AJ17:AJ19"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U7:U11"/>
+    <mergeCell ref="V20:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U17:U21"/>
+    <mergeCell ref="L3:X3"/>
+    <mergeCell ref="Z3:AL3"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="L1:X2"/>
+    <mergeCell ref="Z1:AL2"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="L13:X13"/>
+    <mergeCell ref="L23:X23"/>
+    <mergeCell ref="U14:X16"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="Z13:AL13"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="AX19:AZ19"/>
     <mergeCell ref="AN1:AZ2"/>
     <mergeCell ref="AN3:AZ3"/>
@@ -4747,37 +4808,6 @@
     <mergeCell ref="AW8:AW9"/>
     <mergeCell ref="AX9:AZ9"/>
     <mergeCell ref="AW10:AZ12"/>
-    <mergeCell ref="L1:X2"/>
-    <mergeCell ref="Z1:AL2"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="L13:X13"/>
-    <mergeCell ref="L23:X23"/>
-    <mergeCell ref="U14:X16"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="Z13:AL13"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="U21:X22"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L3:X3"/>
-    <mergeCell ref="Z3:AL3"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="U11:X12"/>
-    <mergeCell ref="U7:U10"/>
-    <mergeCell ref="U24:X26"/>
-    <mergeCell ref="U31:X32"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="AI4:AL7"/>
-    <mergeCell ref="AI10:AL12"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AI14:AL16"/>
-    <mergeCell ref="AI21:AL22"/>
-    <mergeCell ref="AI17:AI20"/>
-    <mergeCell ref="AJ17:AJ19"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J12">
     <cfRule type="cellIs" dxfId="33" priority="83" operator="lessThan">
@@ -5182,7 +5212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN14 AV14">
+  <conditionalFormatting sqref="AV14 AN14">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5234,38 +5264,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="114"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="112" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="114"/>
-      <c r="M1" s="112"/>
+      <c r="M1" s="117"/>
       <c r="N1" s="114"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="115"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47">
@@ -5283,7 +5313,7 @@
       <c r="F3" s="47">
         <v>0</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="47">
         <f>B3</f>
         <v>0</v>
@@ -5304,8 +5334,8 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="117"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47">
@@ -5323,7 +5353,7 @@
       <c r="F4" s="50">
         <v>50</v>
       </c>
-      <c r="G4" s="121"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="47">
         <f>SUM(H3,B4)</f>
         <v>50</v>
@@ -5344,9 +5374,9 @@
         <f>SUM(B3:F4)</f>
         <v>820</v>
       </c>
-      <c r="M4" s="123"/>
+      <c r="M4" s="124"/>
       <c r="N4" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5365,7 +5395,7 @@
       <c r="F5" s="50">
         <v>200</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="47">
         <f t="shared" ref="H5:H7" si="1">SUM(H4,B5)</f>
         <v>250</v>
@@ -5386,9 +5416,9 @@
         <f>SUM(B3:F5)</f>
         <v>1515</v>
       </c>
-      <c r="M5" s="123"/>
-      <c r="N5" s="118" t="s">
-        <v>9</v>
+      <c r="M5" s="124"/>
+      <c r="N5" s="68" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5437,7 @@
       <c r="F6" s="50">
         <v>50</v>
       </c>
-      <c r="G6" s="121"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -5428,9 +5458,9 @@
         <f>SUM(B3:F6)</f>
         <v>2035</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="119" t="s">
-        <v>10</v>
+      <c r="M6" s="124"/>
+      <c r="N6" s="69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5449,7 +5479,7 @@
       <c r="F7" s="47">
         <v>0</v>
       </c>
-      <c r="G7" s="122"/>
+      <c r="G7" s="123"/>
       <c r="H7" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -5470,7 +5500,7 @@
         <f>SUM(B3:F7)</f>
         <v>2335</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="119"/>
       <c r="N7" s="47">
         <f>K6-K3-I6+I3</f>
         <v>715</v>

--- a/surf-paper/demos/conv_filters_and_integral_images.xlsx
+++ b/surf-paper/demos/conv_filters_and_integral_images.xlsx
@@ -1027,171 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="13" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,12 +1034,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1047,177 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,7 +2067,7 @@
   <dimension ref="A1:AZ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,162 +2095,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B1" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="L1" s="90" t="s">
+      <c r="B1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="L1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="92"/>
-      <c r="Z1" s="90" t="s">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+      <c r="Z1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="92"/>
-      <c r="AN1" s="73" t="s">
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="96"/>
+      <c r="AN1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="75"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="114"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B2" s="93"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="94"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="94"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="94"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="77"/>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="77"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="78"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="99"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="99"/>
+      <c r="AN2" s="115"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="116"/>
     </row>
     <row r="3" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="108"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="108"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="80"/>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="81"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="93"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="93"/>
+      <c r="AN3" s="117"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="118"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -2289,10 +2289,10 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="101"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8">
         <f>SUM($AJ$8*B4+$AK$8*C4+$AL$8*D4)</f>
@@ -2323,10 +2323,10 @@
         <v>255</v>
       </c>
       <c r="AH4" s="7"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="101"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="82"/>
       <c r="AN4" s="32"/>
       <c r="AO4" s="33">
         <f>SUM($AX$8*B4+$AY$8*C4+$AZ$8*D4)</f>
@@ -2357,10 +2357,10 @@
         <v>255</v>
       </c>
       <c r="AV4" s="34"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="84"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="120"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
@@ -2420,10 +2420,10 @@
         <v>85</v>
       </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="101"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="82"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="13">
         <f t="shared" ref="AA5:AA12" si="3">SUM($AJ$8*B5+$AK$8*C5+$AL$8*D5)</f>
@@ -2454,10 +2454,10 @@
         <v>-510</v>
       </c>
       <c r="AH5" s="14"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="101"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="82"/>
       <c r="AN5" s="35"/>
       <c r="AO5" s="13">
         <f t="shared" ref="AO5:AO12" si="10">SUM($AX$8*B5+$AY$8*C5+$AZ$8*D5)</f>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="AV5" s="36"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="84"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="120"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
@@ -2551,10 +2551,10 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="101"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="82"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13">
         <f t="shared" si="3"/>
@@ -2585,10 +2585,10 @@
         <v>255</v>
       </c>
       <c r="AH6" s="14"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="101"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="82"/>
       <c r="AN6" s="35"/>
       <c r="AO6" s="13">
         <f t="shared" si="10"/>
@@ -2619,10 +2619,10 @@
         <v>-255</v>
       </c>
       <c r="AV6" s="36"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="84"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="81"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="120"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
@@ -2682,7 +2682,7 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="100"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="101"/>
+      <c r="AI7" s="80"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="82"/>
       <c r="AN7" s="35"/>
       <c r="AO7" s="13">
         <f t="shared" si="10"/>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AV7" s="36"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="84"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="120"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="100"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="15">
         <v>0.1111111111111111</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="14"/>
-      <c r="AI8" s="102"/>
+      <c r="AI8" s="83"/>
       <c r="AJ8" s="16">
         <v>1</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="36"/>
-      <c r="AW8" s="82"/>
+      <c r="AW8" s="119"/>
       <c r="AX8" s="28">
         <v>-1</v>
       </c>
@@ -2968,14 +2968,14 @@
         <v>28.333333333333332</v>
       </c>
       <c r="T9" s="14"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="125">
+      <c r="U9" s="80"/>
+      <c r="V9" s="70">
         <v>0.1111111111111111</v>
       </c>
-      <c r="W9" s="125">
+      <c r="W9" s="70">
         <v>0.1111111111111111</v>
       </c>
-      <c r="X9" s="125">
+      <c r="X9" s="70">
         <v>0.1111111111111111</v>
       </c>
       <c r="Z9" s="12"/>
@@ -3008,12 +3008,12 @@
         <v>0</v>
       </c>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="95" t="s">
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="97"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="105"/>
       <c r="AN9" s="35"/>
       <c r="AO9" s="13">
         <f t="shared" si="10"/>
@@ -3044,12 +3044,12 @@
         <v>0</v>
       </c>
       <c r="AV9" s="36"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="70" t="s">
+      <c r="AW9" s="119"/>
+      <c r="AX9" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="72"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="111"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
@@ -3109,12 +3109,12 @@
         <v>56.666666666666664</v>
       </c>
       <c r="T10" s="14"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="126" t="s">
+      <c r="U10" s="80"/>
+      <c r="V10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="127"/>
-      <c r="X10" s="128"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="87"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="13">
         <f t="shared" si="3"/>
@@ -3145,10 +3145,10 @@
         <v>255</v>
       </c>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="101"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="82"/>
       <c r="AN10" s="35"/>
       <c r="AO10" s="13">
         <f t="shared" si="10"/>
@@ -3179,10 +3179,10 @@
         <v>-255</v>
       </c>
       <c r="AV10" s="36"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="84"/>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="120"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
@@ -3242,10 +3242,10 @@
         <v>85</v>
       </c>
       <c r="T11" s="14"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="87"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="90"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="13">
         <f t="shared" si="3"/>
@@ -3276,10 +3276,10 @@
         <v>-510</v>
       </c>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="101"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="82"/>
       <c r="AN11" s="35"/>
       <c r="AO11" s="13">
         <f t="shared" si="10"/>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="AV11" s="36"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="84"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="120"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
@@ -3352,10 +3352,10 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="101"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="82"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="23">
         <f t="shared" si="3"/>
@@ -3386,10 +3386,10 @@
         <v>255</v>
       </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="101"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
       <c r="AN12" s="37"/>
       <c r="AO12" s="38">
         <f t="shared" si="10"/>
@@ -3420,10 +3420,10 @@
         <v>255</v>
       </c>
       <c r="AV12" s="39"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="84"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="120"/>
     </row>
     <row r="13" spans="1:52" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -3434,32 +3434,32 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="99"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="80"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="99"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="102"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="101"/>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="102"/>
       <c r="AN13" s="45"/>
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
@@ -3486,10 +3486,10 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="101"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="82"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -3499,10 +3499,10 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="101"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="82"/>
       <c r="AN14" s="32"/>
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
@@ -3512,10 +3512,10 @@
       <c r="AT14" s="41"/>
       <c r="AU14" s="41"/>
       <c r="AV14" s="34"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="84"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="81"/>
+      <c r="AZ14" s="120"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -3550,10 +3550,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="101"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="82"/>
       <c r="Z15" s="26">
         <f>SUM($AK$17*B4+$AK$18*B5+$AK$19*B6)</f>
         <v>255</v>
@@ -3590,10 +3590,10 @@
         <f t="shared" si="18"/>
         <v>255</v>
       </c>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="101"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="82"/>
       <c r="AN15" s="43">
         <f>SUM($AY$16*B4+$AY$17*B5+$AY$18*B6)</f>
         <v>-255</v>
@@ -3630,10 +3630,10 @@
         <f t="shared" si="19"/>
         <v>-255</v>
       </c>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="84"/>
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="81"/>
+      <c r="AY15" s="81"/>
+      <c r="AZ15" s="120"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -3668,10 +3668,10 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="101"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="82"/>
       <c r="Z16" s="26">
         <f t="shared" ref="Z16:Z21" si="26">SUM($AK$17*B5+$AK$18*B6+$AK$19*B7)</f>
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <f t="shared" ref="AH16:AH21" si="34">SUM($AK$17*J5+$AK$18*J6+$AK$19*J7)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="83"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="101"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="82"/>
       <c r="AN16" s="43">
         <f t="shared" ref="AN16:AN21" si="35">SUM($AY$16*B5+$AY$17*B6+$AY$18*B7)</f>
         <v>0</v>
@@ -3748,12 +3748,12 @@
         <f t="shared" ref="AV16:AV21" si="43">SUM($AY$16*J5+$AY$17*J6+$AY$18*J7)</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="84"/>
+      <c r="AW16" s="119"/>
+      <c r="AX16" s="120"/>
       <c r="AY16" s="31">
         <v>-1</v>
       </c>
-      <c r="AZ16" s="88"/>
+      <c r="AZ16" s="121"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
@@ -3788,7 +3788,7 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="100"/>
+      <c r="U17" s="80"/>
       <c r="V17" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3834,12 +3834,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="112"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="84"/>
       <c r="AK17" s="16">
         <v>1</v>
       </c>
-      <c r="AL17" s="104"/>
+      <c r="AL17" s="107"/>
       <c r="AN17" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3876,12 +3876,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="84"/>
+      <c r="AW17" s="119"/>
+      <c r="AX17" s="120"/>
       <c r="AY17" s="31">
         <v>0</v>
       </c>
-      <c r="AZ17" s="88"/>
+      <c r="AZ17" s="121"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="14"/>
-      <c r="U18" s="100"/>
+      <c r="U18" s="80"/>
       <c r="V18" s="15">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -3965,12 +3965,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="112"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="84"/>
       <c r="AK18" s="16">
         <v>-2</v>
       </c>
-      <c r="AL18" s="104"/>
+      <c r="AL18" s="107"/>
       <c r="AN18" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4007,12 +4007,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="82"/>
-      <c r="AX18" s="87"/>
+      <c r="AW18" s="119"/>
+      <c r="AX18" s="90"/>
       <c r="AY18" s="40">
         <v>1</v>
       </c>
-      <c r="AZ18" s="89"/>
+      <c r="AZ18" s="122"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -4050,14 +4050,14 @@
         <v>23.181818181818183</v>
       </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="125">
+      <c r="U19" s="80"/>
+      <c r="V19" s="70">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="W19" s="125">
+      <c r="W19" s="70">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="X19" s="125">
+      <c r="X19" s="70">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="Z19" s="26">
@@ -4096,12 +4096,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="113"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="85"/>
       <c r="AK19" s="28">
         <v>1</v>
       </c>
-      <c r="AL19" s="105"/>
+      <c r="AL19" s="108"/>
       <c r="AN19" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4138,12 +4138,12 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="82"/>
-      <c r="AX19" s="70" t="s">
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="72"/>
+      <c r="AY19" s="110"/>
+      <c r="AZ19" s="111"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -4178,12 +4178,12 @@
         <v>46.363636363636367</v>
       </c>
       <c r="T20" s="14"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="126" t="s">
+      <c r="U20" s="80"/>
+      <c r="V20" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="W20" s="127"/>
-      <c r="X20" s="128"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="87"/>
       <c r="Z20" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -4220,12 +4220,12 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="103" t="s">
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="103"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
       <c r="AN20" s="43">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="82"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="83"/>
-      <c r="AZ20" s="84"/>
+      <c r="AW20" s="119"/>
+      <c r="AX20" s="81"/>
+      <c r="AY20" s="81"/>
+      <c r="AZ20" s="120"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -4300,10 +4300,10 @@
         <v>115.90909090909092</v>
       </c>
       <c r="T21" s="14"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="87"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="90"/>
       <c r="Z21" s="26">
         <f t="shared" si="26"/>
         <v>255</v>
@@ -4340,10 +4340,10 @@
         <f t="shared" si="34"/>
         <v>255</v>
       </c>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="101"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="82"/>
       <c r="AN21" s="43">
         <f t="shared" si="35"/>
         <v>255</v>
@@ -4380,10 +4380,10 @@
         <f t="shared" si="43"/>
         <v>255</v>
       </c>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="83"/>
-      <c r="AZ21" s="84"/>
+      <c r="AW21" s="119"/>
+      <c r="AX21" s="81"/>
+      <c r="AY21" s="81"/>
+      <c r="AZ21" s="120"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
@@ -4397,10 +4397,10 @@
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="22"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="101"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="82"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
@@ -4410,10 +4410,10 @@
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="111"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="79"/>
       <c r="AN22" s="37"/>
       <c r="AO22" s="42"/>
       <c r="AP22" s="42"/>
@@ -4423,25 +4423,25 @@
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
       <c r="AV22" s="39"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="86"/>
-      <c r="AY22" s="86"/>
-      <c r="AZ22" s="87"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="90"/>
     </row>
     <row r="23" spans="1:52" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L23" s="98"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="102"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="L24" s="5"/>
@@ -4453,10 +4453,10 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="101"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="82"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E25" s="24"/>
@@ -4490,10 +4490,10 @@
         <v>1020</v>
       </c>
       <c r="T25" s="14"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="101"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="82"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E26" s="25"/>
@@ -4527,10 +4527,10 @@
         <v>510</v>
       </c>
       <c r="T26" s="14"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="101"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="82"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E27" s="25"/>
@@ -4564,7 +4564,7 @@
         <v>255</v>
       </c>
       <c r="T27" s="14"/>
-      <c r="U27" s="100"/>
+      <c r="U27" s="80"/>
       <c r="V27" s="16">
         <v>1</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="14"/>
-      <c r="U28" s="100"/>
+      <c r="U28" s="80"/>
       <c r="V28" s="16">
         <v>1</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>255</v>
       </c>
       <c r="T29" s="14"/>
-      <c r="U29" s="100"/>
+      <c r="U29" s="80"/>
       <c r="V29" s="28">
         <v>1</v>
       </c>
@@ -4699,12 +4699,12 @@
         <v>510</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="126" t="s">
+      <c r="U30" s="80"/>
+      <c r="V30" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="W30" s="129"/>
-      <c r="X30" s="130"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="73"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
@@ -4738,10 +4738,10 @@
         <v>1020</v>
       </c>
       <c r="T31" s="14"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="133"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="76"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
@@ -4754,10 +4754,10 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="22"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="111"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="79"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="24"/>
@@ -4765,6 +4765,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AN1:AZ2"/>
+    <mergeCell ref="AN3:AZ3"/>
+    <mergeCell ref="AW14:AZ15"/>
+    <mergeCell ref="AW20:AZ22"/>
+    <mergeCell ref="AW16:AW19"/>
+    <mergeCell ref="AX16:AX18"/>
+    <mergeCell ref="AZ16:AZ18"/>
+    <mergeCell ref="AW4:AZ7"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="AW10:AZ12"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="L13:X13"/>
+    <mergeCell ref="L23:X23"/>
+    <mergeCell ref="U14:X16"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="Z13:AL13"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="U17:U21"/>
+    <mergeCell ref="L3:X3"/>
+    <mergeCell ref="Z3:AL3"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="L1:X2"/>
+    <mergeCell ref="Z1:AL2"/>
     <mergeCell ref="V30:X31"/>
     <mergeCell ref="U32:X32"/>
     <mergeCell ref="U27:U31"/>
@@ -4781,33 +4808,6 @@
     <mergeCell ref="U7:U11"/>
     <mergeCell ref="V20:X21"/>
     <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U17:U21"/>
-    <mergeCell ref="L3:X3"/>
-    <mergeCell ref="Z3:AL3"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="L1:X2"/>
-    <mergeCell ref="Z1:AL2"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="L13:X13"/>
-    <mergeCell ref="L23:X23"/>
-    <mergeCell ref="U14:X16"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="Z13:AL13"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AN1:AZ2"/>
-    <mergeCell ref="AN3:AZ3"/>
-    <mergeCell ref="AW14:AZ15"/>
-    <mergeCell ref="AW20:AZ22"/>
-    <mergeCell ref="AW16:AW19"/>
-    <mergeCell ref="AX16:AX18"/>
-    <mergeCell ref="AZ16:AZ18"/>
-    <mergeCell ref="AW4:AZ7"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="AW10:AZ12"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:J12">
     <cfRule type="cellIs" dxfId="33" priority="83" operator="lessThan">
@@ -4978,7 +4978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4 AH4">
+  <conditionalFormatting sqref="AH4 Z4">
     <cfRule type="cellIs" dxfId="20" priority="49" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5030,7 +5030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z14 AH14">
+  <conditionalFormatting sqref="AH14 Z14">
     <cfRule type="cellIs" dxfId="16" priority="37" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5160,7 +5160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN4 AV4">
+  <conditionalFormatting sqref="AV4 AN4">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5212,7 +5212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV14 AN14">
+  <conditionalFormatting sqref="AN14 AV14">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>127</formula>
     </cfRule>
@@ -5264,38 +5264,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="117" t="s">
+      <c r="B1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="114"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="123"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="115"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="124"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47">
@@ -5313,7 +5313,7 @@
       <c r="F3" s="47">
         <v>0</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="47">
         <f>B3</f>
         <v>0</v>
@@ -5334,8 +5334,8 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="M3" s="124"/>
-      <c r="N3" s="116"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="125"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47">
@@ -5353,7 +5353,7 @@
       <c r="F4" s="50">
         <v>50</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="131"/>
       <c r="H4" s="47">
         <f>SUM(H3,B4)</f>
         <v>50</v>
@@ -5374,7 +5374,7 @@
         <f>SUM(B3:F4)</f>
         <v>820</v>
       </c>
-      <c r="M4" s="124"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="47" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="F5" s="50">
         <v>200</v>
       </c>
-      <c r="G5" s="122"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="47">
         <f t="shared" ref="H5:H7" si="1">SUM(H4,B5)</f>
         <v>250</v>
@@ -5416,7 +5416,7 @@
         <f>SUM(B3:F5)</f>
         <v>1515</v>
       </c>
-      <c r="M5" s="124"/>
+      <c r="M5" s="133"/>
       <c r="N5" s="68" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="F6" s="50">
         <v>50</v>
       </c>
-      <c r="G6" s="122"/>
+      <c r="G6" s="131"/>
       <c r="H6" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -5458,7 +5458,7 @@
         <f>SUM(B3:F6)</f>
         <v>2035</v>
       </c>
-      <c r="M6" s="124"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="69" t="s">
         <v>9</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="F7" s="47">
         <v>0</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="47">
         <f t="shared" si="1"/>
         <v>300</v>
@@ -5500,7 +5500,7 @@
         <f>SUM(B3:F7)</f>
         <v>2335</v>
       </c>
-      <c r="M7" s="119"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="47">
         <f>K6-K3-I6+I3</f>
         <v>715</v>
